--- a/data/trans_orig/Q15_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.02440115877143098</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.02731931302846818</v>
+        <v>0.02731931302846819</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02717252081501789</v>
@@ -693,7 +693,7 @@
         <v>0.02794308653014143</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03461205197164691</v>
+        <v>0.03461205197164689</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01660884467892735</v>
+        <v>0.01671195018124372</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02289058351853047</v>
+        <v>0.02237898106612178</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009853852883626928</v>
+        <v>0.009681561008520849</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01427515101544057</v>
+        <v>0.01568908245395936</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01134091003735376</v>
+        <v>0.01057767309266078</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.006830603140782979</v>
+        <v>0.00685466091606605</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.015082517148679</v>
+        <v>0.01502095100517744</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0275845584665685</v>
+        <v>0.02849530138494356</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01677721241156091</v>
+        <v>0.01694798705496838</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01857333310532229</v>
+        <v>0.019281763110595</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01467280765450034</v>
+        <v>0.01483425426819879</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02493066735764754</v>
+        <v>0.02434856719500058</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05584981637978734</v>
+        <v>0.05836210291491005</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06969786619949055</v>
+        <v>0.06582686926989852</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05496667560857649</v>
+        <v>0.05392343217936874</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04901871475859639</v>
+        <v>0.04911388348930385</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05827004691759866</v>
+        <v>0.05925784690389583</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04868073302116312</v>
+        <v>0.04492386634155331</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0584546686606418</v>
+        <v>0.06105879127466986</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06063999113913797</v>
+        <v>0.06096041806133295</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04679613493405926</v>
+        <v>0.04916092585575289</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04652573530609791</v>
+        <v>0.04824087791651363</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04558534715809399</v>
+        <v>0.04590333048460762</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04858394353551387</v>
+        <v>0.04732611171601668</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006249627445746137</v>
+        <v>0.006162037733616075</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009917066912786524</v>
+        <v>0.009789731071284115</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006073522005736146</v>
+        <v>0.006098984598690905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01563486142840512</v>
+        <v>0.01817787307838293</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.007799879925226652</v>
+        <v>0.007602843358403207</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006027987035758606</v>
+        <v>0.005892893545233678</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002062334419219499</v>
+        <v>0.002417066201855182</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0267189259358365</v>
+        <v>0.02751966007849685</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.00907869357101748</v>
+        <v>0.008979314685891856</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01075803518101589</v>
+        <v>0.01075400055032229</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005811710675231068</v>
+        <v>0.006036090938418229</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02821880729532608</v>
+        <v>0.02897564573179675</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03172875433152889</v>
+        <v>0.03301380247947428</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0384402163138526</v>
+        <v>0.03923966549281952</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03093444913528513</v>
+        <v>0.03055061402167871</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.124950865505116</v>
+        <v>0.1477748092041062</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03004133648134287</v>
+        <v>0.02937308515749384</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02795373644716332</v>
+        <v>0.02771294960192019</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0200556635579605</v>
+        <v>0.02038189096216062</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06701261928786065</v>
+        <v>0.06965371791206769</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02546527969995939</v>
+        <v>0.0256436266451811</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02774870771890748</v>
+        <v>0.02813424446738669</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02001520868446191</v>
+        <v>0.02028545164010739</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09211958646707299</v>
+        <v>0.0927748620893265</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.03042067799053647</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02986205277438988</v>
+        <v>0.02986205277438987</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03511637230638237</v>
+        <v>0.03512034740613738</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02699416115055719</v>
+        <v>0.0266415721828049</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02417911193011185</v>
+        <v>0.02508602783350553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01056098748323327</v>
+        <v>0.01054193937491197</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002747192184819035</v>
+        <v>0.002745631490474322</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02843400679983309</v>
+        <v>0.02895645897458593</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005687495069875598</v>
+        <v>0.006229169154622002</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01866687385209679</v>
+        <v>0.02015718472016064</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01983599732480712</v>
+        <v>0.01936145390994909</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03473033340358674</v>
+        <v>0.03377527321977551</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01838276751850592</v>
+        <v>0.0181295985104517</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01849860151034122</v>
+        <v>0.01882715125314264</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08966583633794489</v>
+        <v>0.0992235645754217</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0765203089556423</v>
+        <v>0.07699523220260024</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08114582134288208</v>
+        <v>0.08280132563848659</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04776394202939953</v>
+        <v>0.04836844743235617</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02534684182144506</v>
+        <v>0.02488476998046034</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08542694294357028</v>
+        <v>0.08225541738070079</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03531948203849562</v>
+        <v>0.03508696937432377</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07049609999685942</v>
+        <v>0.07740992799988256</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04951809799579791</v>
+        <v>0.04982657942991536</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06900848399318786</v>
+        <v>0.06991869072059424</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04871628784687664</v>
+        <v>0.04670147921984773</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05043433143244581</v>
+        <v>0.05140501998384053</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.04560735711257791</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03880549434528688</v>
+        <v>0.03880549434528689</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02636344454818481</v>
@@ -1101,7 +1101,7 @@
         <v>0.04743657152872689</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02742919091822722</v>
+        <v>0.02742919091822721</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03111729382740798</v>
+        <v>0.03048647629337087</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02185716213275793</v>
+        <v>0.0212207524206679</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0257309207755771</v>
+        <v>0.02715864719212427</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01110110092511117</v>
+        <v>0.01068420981117053</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01234886700090519</v>
+        <v>0.01267091363991552</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.009516012146086878</v>
+        <v>0.008692695039639958</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02743185734221948</v>
+        <v>0.03021858977980594</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006722821588259591</v>
+        <v>0.006372155687831829</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02583010909057878</v>
+        <v>0.02577440527307244</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01858335332906242</v>
+        <v>0.02012640333408705</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03279787377358346</v>
+        <v>0.03338549306345271</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01175063536804152</v>
+        <v>0.01235331173209828</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07419212343455511</v>
+        <v>0.07599061898062277</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08269800274745377</v>
+        <v>0.08066652743975118</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07362551178117581</v>
+        <v>0.07287956104631405</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1389815125461169</v>
+        <v>0.1295774511206957</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04522482411065596</v>
+        <v>0.04619059307523203</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04492601977629332</v>
+        <v>0.04601054921700246</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0765139306925139</v>
+        <v>0.07518827414017434</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04855051321248424</v>
+        <v>0.05951065130174557</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05359973480001864</v>
+        <v>0.05347905138494916</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05291661612128423</v>
+        <v>0.05674737909452367</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06467812785986306</v>
+        <v>0.06755224924161878</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06577046926943764</v>
+        <v>0.07584840471118162</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.01530677062636323</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.002312405980937437</v>
+        <v>0.002312405980937436</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03453899358889778</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0120862635490934</v>
+        <v>0.01198024803102656</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01464358792830038</v>
+        <v>0.01440102467970759</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01272678922563576</v>
+        <v>0.00918974780282026</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.002557149233241706</v>
+        <v>0.002581818203284372</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01517013895650647</v>
+        <v>0.01552753630641684</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02379398560638665</v>
+        <v>0.02436487952959831</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004762978297562013</v>
+        <v>0.004808952270131796</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01895584702240667</v>
+        <v>0.01948442599876236</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02489883346075018</v>
+        <v>0.02480110830075815</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01064010112219678</v>
+        <v>0.00978093349408999</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.002065321168205997</v>
+        <v>0.001260545750181427</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0662531446763274</v>
+        <v>0.06578116747070184</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06740326355275968</v>
+        <v>0.06500874270111137</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0571870769350547</v>
+        <v>0.05701425021026255</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0339145110614378</v>
+        <v>0.03508314021955288</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07422315375438643</v>
+        <v>0.07232154720956485</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09692472158529926</v>
+        <v>0.09485771516809091</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04036228223965665</v>
+        <v>0.03944332799283869</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01194908697080649</v>
+        <v>0.01076403231865755</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05567968320846703</v>
+        <v>0.05743844545448078</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07155028569880817</v>
+        <v>0.06841829768448364</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03850846664868402</v>
+        <v>0.03847829134688419</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01656357584347812</v>
+        <v>0.01711845405363812</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.1015072553366286</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06955668242517545</v>
+        <v>0.0695566824251754</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.03551264718445148</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01370601147908412</v>
+        <v>0.01432718690811105</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01037076247579665</v>
+        <v>0.0101787515807831</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03601653767426045</v>
+        <v>0.03601968133575976</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01999414891343816</v>
+        <v>0.02026148408720503</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01956807112803645</v>
+        <v>0.01880959722413424</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03527463859142498</v>
+        <v>0.03830071914222117</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0642851208449583</v>
+        <v>0.06498655292963598</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04877800550924256</v>
+        <v>0.04662829445376144</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02055866834664324</v>
+        <v>0.02250826719704295</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02688857707640779</v>
+        <v>0.02802916792079859</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.05909299898251056</v>
+        <v>0.05772705666092709</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03782878386310254</v>
+        <v>0.03654301171616592</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06067524963123232</v>
+        <v>0.06331005522582442</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06203456975327692</v>
+        <v>0.05382288762391108</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09264609432923557</v>
+        <v>0.09523398593416113</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05483690395311281</v>
+        <v>0.0585386453582646</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06834009327447019</v>
+        <v>0.06979361956193476</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09739769572644792</v>
+        <v>0.09670353274558893</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1443474130048663</v>
+        <v>0.1492467056561984</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1107832749634816</v>
+        <v>0.1077085019277911</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05320499915400636</v>
+        <v>0.05295405357660212</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06418087703150258</v>
+        <v>0.06251331399911104</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1131090411650078</v>
+        <v>0.109160444025574</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07368764499670678</v>
+        <v>0.07183841715490596</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>0.008328067625873063</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.03277981118529614</v>
+        <v>0.03277981118529613</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.03439428937884737</v>
@@ -1509,7 +1509,7 @@
         <v>0.009570921326188295</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.02766442771052024</v>
+        <v>0.02766442771052025</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02612391697020935</v>
+        <v>0.02781793872341663</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02294871690582526</v>
+        <v>0.02225962541589064</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.004864220083530026</v>
+        <v>0.0037512830996465</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01265527705942849</v>
+        <v>0.01317051337196282</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01726991740605284</v>
+        <v>0.01640042166054826</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01744426340750318</v>
+        <v>0.01684675741969312</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.00268521065039175</v>
+        <v>0.002840490007938722</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02196771953006576</v>
+        <v>0.02242387550495314</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02410410716628877</v>
+        <v>0.02433563271191374</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02377152195181592</v>
+        <v>0.02309216316924271</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.005147695683086217</v>
+        <v>0.004702994935058012</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01998731259100135</v>
+        <v>0.02036961679333755</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06081739068726091</v>
+        <v>0.06212838935549381</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05472319797527098</v>
+        <v>0.05379883481170507</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02445232848264757</v>
+        <v>0.02315595420400368</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03586177302053609</v>
+        <v>0.03806089122171057</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04242784090072137</v>
+        <v>0.04342978203071193</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04186972849142141</v>
+        <v>0.04246791668179505</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01832427593696203</v>
+        <v>0.01863013880772705</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.04738709993165186</v>
+        <v>0.04796165127300621</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04585971414011652</v>
+        <v>0.04588303147048226</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04274705858066313</v>
+        <v>0.04363494661415539</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01727658828296462</v>
+        <v>0.01672204798818261</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03810830536422014</v>
+        <v>0.03800820880044442</v>
       </c>
     </row>
     <row r="25">
@@ -1645,7 +1645,7 @@
         <v>0.021023658559201</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.01989577456276881</v>
+        <v>0.01989577456276882</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01769247114525332</v>
+        <v>0.01852322474297298</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.005243225220211446</v>
+        <v>0.00524258882511057</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01431038710502785</v>
+        <v>0.01510599676642537</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01131653996168496</v>
+        <v>0.01071915329717019</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02019503021268125</v>
+        <v>0.01966835301337464</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01086086999253418</v>
+        <v>0.01072603845083276</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01017568034425576</v>
+        <v>0.009872812443505199</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01103210686644367</v>
+        <v>0.01041633354008177</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02243334569114387</v>
+        <v>0.02194947678037239</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.009669796326383505</v>
+        <v>0.009871030322253439</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01484021304047115</v>
+        <v>0.01469005914832823</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01382875735982395</v>
+        <v>0.01389178479985653</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04505602398478881</v>
+        <v>0.04346921837255582</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0233867957703428</v>
+        <v>0.02222797928769681</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03731273949772671</v>
+        <v>0.03948106232961825</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03538826607111176</v>
+        <v>0.03564165754918704</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0469817518436531</v>
+        <v>0.0459773488270945</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03624685333060598</v>
+        <v>0.03612789947890932</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0299859307240361</v>
+        <v>0.03001284031922339</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02927030494216377</v>
+        <v>0.02845662437062932</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04092871545097064</v>
+        <v>0.04033744499121688</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02441637741236091</v>
+        <v>0.02500013730336894</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02951034896742274</v>
+        <v>0.03015615368404921</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02982687961675844</v>
+        <v>0.02865552907383813</v>
       </c>
     </row>
     <row r="28">
@@ -1781,7 +1781,7 @@
         <v>0.02629667609185174</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.02991882845759533</v>
+        <v>0.02991882845759531</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02898512042542526</v>
+        <v>0.02833757401958699</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02422572262813119</v>
+        <v>0.02418310232647984</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02187646429132508</v>
+        <v>0.02153013701519191</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01999720716370805</v>
+        <v>0.02123184564255736</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02128344198704389</v>
+        <v>0.02125226576188163</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.02279376212921106</v>
+        <v>0.02304603838569797</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.0197299554598118</v>
+        <v>0.02021126054932927</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.02574160470221613</v>
+        <v>0.02621756098626296</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02625722132472932</v>
+        <v>0.02663167260052028</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.02500217870059641</v>
+        <v>0.02486820562373286</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.02242191537878683</v>
+        <v>0.02234047411835091</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.02542475503701554</v>
+        <v>0.02540161896374034</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04196238575823196</v>
+        <v>0.04256357165521018</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03664433556149696</v>
+        <v>0.03636190452472516</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03406785161785184</v>
+        <v>0.03332279556072419</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.04050258900231032</v>
+        <v>0.04244925122318187</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03313768095169301</v>
+        <v>0.03283375383606094</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.03503512578932171</v>
+        <v>0.03553418573503586</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.03175498039211487</v>
+        <v>0.03159032243786142</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03745025366954969</v>
+        <v>0.03873923704906284</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03460871515325969</v>
+        <v>0.03484482005015143</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.03376173600994834</v>
+        <v>0.0342685396285512</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.03038933710069749</v>
+        <v>0.03024648338919782</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.03660602890491138</v>
+        <v>0.03733960352202007</v>
       </c>
     </row>
     <row r="31">
